--- a/Output/roaming_impact_reports_per_acct/DigiKey_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/DigiKey_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,87 +547,83 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>64199</v>
+        <v>161874</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-08</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>167965</v>
+        <v>52096</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>2021-01-19</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>50749</v>
+        <v>170510</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>161874</v>
+        <v>141909</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>134716</v>
+        <v>48540</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
@@ -635,37 +631,37 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>20227</v>
+        <v>184564</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>34065</v>
+        <v>20227</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
@@ -673,18 +669,18 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2019-05-11</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>48540</v>
+        <v>34065</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
@@ -692,37 +688,37 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>2019-03-16</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>184564</v>
+        <v>14221</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2018-11-25</t>
+          <t>2018-05-08</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>14221</v>
+        <v>23765</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
@@ -730,34 +726,15 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2018-05-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>23765</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
           <t>2018-01-09</t>
         </is>
       </c>
     </row>
+    <row r="22"/>
     <row r="23"/>
     <row r="24"/>
     <row r="25"/>
     <row r="26"/>
-    <row r="27"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/DigiKey_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/DigiKey_driver_summary.xlsx
@@ -547,18 +547,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>161874</v>
+        <v>170510</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -574,26 +576,28 @@
       <c r="D13" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E13" s="4" t="n">
-        <v/>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>170510</v>
+        <v>161874</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
@@ -604,7 +608,7 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>141909</v>
+        <v>143342</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
@@ -612,18 +616,18 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>48540</v>
+        <v>20227</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
@@ -631,37 +635,37 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2019-05-11</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>184564</v>
+        <v>34065</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>20227</v>
+        <v>48540</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
@@ -669,26 +673,26 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2019-03-16</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>34065</v>
+        <v>184564</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2018-11-25</t>
         </is>
       </c>
     </row>

--- a/Output/roaming_impact_reports_per_acct/DigiKey_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/DigiKey_driver_summary.xlsx
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>143342</v>
+        <v>144782</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/DigiKey_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/DigiKey_driver_summary.xlsx
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>170510</v>
+        <v>172690</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" s="4" t="n">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>144782</v>
+        <v>154175</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/DigiKey_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/DigiKey_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -522,158 +519,332 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>172690</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>2021-01-19</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.130.0.5</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>778486</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2131</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E12" t="n">
+        <v>972</v>
+      </c>
+      <c r="F12" t="n">
+        <v>781660</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>22.130.0.5</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>52096</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>2020-09-28</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3296941</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6476</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2989</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5171</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3306406</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>20.70.30.1</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>161874</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>2019-09-05</t>
-        </is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.5</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>35999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>112</v>
+      </c>
+      <c r="E14" t="n">
+        <v>67</v>
+      </c>
+      <c r="F14" t="n">
+        <v>36116</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>20.50.0.5</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>154175</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.4.2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4216368</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10356</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2464</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4229188</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>20.70.4.2</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2018-10-21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>20227</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>2019-05-11</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 21.120.0.9</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>127884</v>
+      </c>
+      <c r="C16" t="n">
+        <v>145</v>
+      </c>
+      <c r="D16" t="n">
+        <v>221</v>
+      </c>
+      <c r="E16" t="n">
+        <v>136</v>
+      </c>
+      <c r="F16" t="n">
+        <v>128250</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>21.120.0.9</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>34065</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-28</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>68085</v>
+      </c>
+      <c r="C17" t="n">
+        <v>74</v>
+      </c>
+      <c r="D17" t="n">
+        <v>33</v>
+      </c>
+      <c r="E17" t="n">
+        <v>234</v>
+      </c>
+      <c r="F17" t="n">
+        <v>68192</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>20.70.26.2</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2021-08-08</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>48540</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2019-03-16</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>65379</v>
+      </c>
+      <c r="C18" t="n">
+        <v>85</v>
+      </c>
+      <c r="D18" t="n">
+        <v>25</v>
+      </c>
+      <c r="E18" t="n">
+        <v>81</v>
+      </c>
+      <c r="F18" t="n">
+        <v>65489</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>20.70.19.1</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
         </is>
       </c>
     </row>
@@ -683,14 +854,35 @@
           <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
-      <c r="B19" s="6" t="n">
+      <c r="B19" t="n">
+        <v>184414</v>
+      </c>
+      <c r="C19" t="n">
+        <v>146</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>192</v>
+      </c>
+      <c r="F19" t="n">
         <v>184564</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" s="4" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>20.70.5.2</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>2018-11-25</t>
         </is>
@@ -699,46 +891,363 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>14221</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2018-05-08</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>154074</v>
+      </c>
+      <c r="C20" t="n">
+        <v>71</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30</v>
+      </c>
+      <c r="E20" t="n">
+        <v>191</v>
+      </c>
+      <c r="F20" t="n">
+        <v>154175</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>20.70.12.5</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>172561</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>124</v>
+      </c>
+      <c r="E21" t="n">
+        <v>247</v>
+      </c>
+      <c r="F21" t="n">
+        <v>172690</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>22.30.0.11</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>48535</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>77</v>
+      </c>
+      <c r="F22" t="n">
+        <v>48540</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>20.70.8.1</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>100</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>34065</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>52</v>
+      </c>
+      <c r="F23" t="n">
+        <v>34065</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>20.70.9.1</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>100</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2019-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>52091</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>68</v>
+      </c>
+      <c r="F24" t="n">
+        <v>52096</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>20220</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>25</v>
+      </c>
+      <c r="F25" t="n">
+        <v>20227</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>20.70.10.2</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>100</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2019-05-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>161852</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14</v>
+      </c>
+      <c r="E26" t="n">
+        <v>222</v>
+      </c>
+      <c r="F26" t="n">
+        <v>161874</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>20.70.11.3</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>100</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2019-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
         </is>
       </c>
-      <c r="B21" s="6" t="n">
+      <c r="B27" t="n">
+        <v>23761</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>29</v>
+      </c>
+      <c r="F27" t="n">
         <v>23765</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" s="4" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>20.30.1.2</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>100</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>2018-01-09</t>
         </is>
       </c>
     </row>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>14221</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>40</v>
+      </c>
+      <c r="F28" t="n">
+        <v>14221</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>20.50.0.4</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>100</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2018-05-08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/DigiKey_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/DigiKey_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,23 +573,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.130.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.25.2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>778486</v>
+        <v>1771970</v>
       </c>
       <c r="C12" t="n">
-        <v>2131</v>
+        <v>7123</v>
       </c>
       <c r="D12" t="n">
-        <v>1043</v>
+        <v>634</v>
       </c>
       <c r="E12" t="n">
-        <v>972</v>
+        <v>2452</v>
       </c>
       <c r="F12" t="n">
-        <v>781660</v>
+        <v>1779727</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>22.130.0.5</t>
+          <t>20.70.25.2</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -606,30 +606,30 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2021-06-21</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.130.0.5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3296941</v>
+        <v>789985</v>
       </c>
       <c r="C13" t="n">
-        <v>6476</v>
+        <v>2131</v>
       </c>
       <c r="D13" t="n">
-        <v>2989</v>
+        <v>1043</v>
       </c>
       <c r="E13" t="n">
-        <v>5171</v>
+        <v>980</v>
       </c>
       <c r="F13" t="n">
-        <v>3306406</v>
+        <v>793159</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -638,15 +638,15 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>20.70.30.1</t>
+          <t>22.130.0.5</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35999</v>
+        <v>37344</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
@@ -666,10 +666,10 @@
         <v>112</v>
       </c>
       <c r="E14" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F14" t="n">
-        <v>36116</v>
+        <v>37461</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -691,23 +691,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.4.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4216368</v>
+        <v>3413584</v>
       </c>
       <c r="C15" t="n">
-        <v>10356</v>
+        <v>6992</v>
       </c>
       <c r="D15" t="n">
-        <v>2464</v>
+        <v>2989</v>
       </c>
       <c r="E15" t="n">
-        <v>4601</v>
+        <v>5368</v>
       </c>
       <c r="F15" t="n">
-        <v>4229188</v>
+        <v>3423565</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>20.70.4.2</t>
+          <t>20.70.30.1</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2018-10-21</t>
+          <t>2022-01-12</t>
         </is>
       </c>
     </row>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127884</v>
+        <v>130754</v>
       </c>
       <c r="C16" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D16" t="n">
         <v>221</v>
       </c>
       <c r="E16" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F16" t="n">
-        <v>128250</v>
+        <v>131121</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -771,23 +771,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.4.2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68085</v>
+        <v>4467082</v>
       </c>
       <c r="C17" t="n">
-        <v>74</v>
+        <v>10922</v>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>2464</v>
       </c>
       <c r="E17" t="n">
-        <v>234</v>
+        <v>4779</v>
       </c>
       <c r="F17" t="n">
-        <v>68192</v>
+        <v>4480468</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -796,38 +796,38 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>20.70.26.2</t>
+          <t>20.70.4.2</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2018-10-21</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>65379</v>
+        <v>69883</v>
       </c>
       <c r="C18" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E18" t="n">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="F18" t="n">
-        <v>65489</v>
+        <v>70000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>20.70.19.1</t>
+          <t>20.70.26.2</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -844,30 +844,30 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2021-08-08</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>184414</v>
+        <v>71102</v>
       </c>
       <c r="C19" t="n">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E19" t="n">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="F19" t="n">
-        <v>184564</v>
+        <v>71220</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -876,15 +876,15 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>20.70.5.2</t>
+          <t>20.70.19.1</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2018-11-25</t>
+          <t>2020-09-14</t>
         </is>
       </c>
     </row>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>154074</v>
+        <v>161052</v>
       </c>
       <c r="C20" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D20" t="n">
         <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F20" t="n">
-        <v>154175</v>
+        <v>161158</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -931,23 +931,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>172561</v>
+        <v>198631</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="D21" t="n">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="F21" t="n">
-        <v>172690</v>
+        <v>198781</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>22.30.0.11</t>
+          <t>20.70.5.2</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -964,30 +964,30 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2018-11-25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48535</v>
+        <v>172561</v>
       </c>
       <c r="C22" t="n">
         <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="E22" t="n">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="F22" t="n">
-        <v>48540</v>
+        <v>172690</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -996,15 +996,15 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>20.70.8.1</t>
+          <t>22.30.0.11</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2019-03-16</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34065</v>
+        <v>35502</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1024,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" t="n">
-        <v>34065</v>
+        <v>35502</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1091,23 +1091,23 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20220</v>
+        <v>48535</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="F25" t="n">
-        <v>20227</v>
+        <v>48540</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>20.70.10.2</t>
+          <t>20.70.8.1</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1124,30 +1124,30 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2019-03-16</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161852</v>
+        <v>23761</v>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="F26" t="n">
-        <v>161874</v>
+        <v>23765</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>20.70.11.3</t>
+          <t>20.30.1.2</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1164,30 +1164,30 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2018-01-09</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23761</v>
+        <v>14221</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F27" t="n">
-        <v>23765</v>
+        <v>14221</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>20.30.1.2</t>
+          <t>20.50.0.4</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1204,30 +1204,30 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2018-01-09</t>
+          <t>2018-05-08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14221</v>
+        <v>20220</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F28" t="n">
-        <v>14221</v>
+        <v>20227</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>20.50.0.4</t>
+          <t>20.70.10.2</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1244,7 +1244,47 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2018-05-08</t>
+          <t>2019-05-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>161852</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14</v>
+      </c>
+      <c r="E29" t="n">
+        <v>222</v>
+      </c>
+      <c r="F29" t="n">
+        <v>161874</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>20.70.11.3</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>100</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
